--- a/src/main/resources/custdetails.xlsx
+++ b/src/main/resources/custdetails.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="9825" windowHeight="6420" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="9825" windowHeight="6420" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="SearchQueryTest" sheetId="2" r:id="rId2"/>
-    <sheet name="verifyLoginTest" sheetId="3" r:id="rId3"/>
-    <sheet name="coupon" sheetId="5" r:id="rId4"/>
+    <sheet name="userSignupTest" sheetId="9" r:id="rId3"/>
+    <sheet name="verifyLoginTest" sheetId="3" r:id="rId4"/>
     <sheet name="buyacourse" sheetId="6" r:id="rId5"/>
     <sheet name="getaFreecourse" sheetId="7" r:id="rId6"/>
     <sheet name="TestCompleteCoupons" sheetId="8" r:id="rId7"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="87">
   <si>
     <t>fname</t>
   </si>
@@ -49,9 +49,6 @@
     <t>test@1234t</t>
   </si>
   <si>
-    <t>validatecourse</t>
-  </si>
-  <si>
     <t>Self-Paced And Live courses</t>
   </si>
   <si>
@@ -103,18 +100,12 @@
     <t>Coupon</t>
   </si>
   <si>
-    <t>FRWEBM4</t>
-  </si>
-  <si>
     <t>Apache Spark Online Training</t>
   </si>
   <si>
     <t>python</t>
   </si>
   <si>
-    <t>Master Python 3 Programming</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
@@ -224,6 +215,72 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Verify if search is filtering the courses based on the search query</t>
+  </si>
+  <si>
+    <t>Verify if user is able to login with valid login credentials</t>
+  </si>
+  <si>
+    <t>Verify if user is able to buy a paid course</t>
+  </si>
+  <si>
+    <t>To verify if user is able to enroll for a free course</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Non - Indian</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course for Full Free discount on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course for Flat discount on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course for % discount on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with Flat discount INDIAN coupon on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with % discount INDIAN coupon on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with Full Free discount INDIAN coupon on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course with Flat discount NON INDIAN coupon on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course with % discount NON INDIAN coupon on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course with Full Free discount NON INDIAN coupon on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Verify if a new user is able to register to Spark Databox</t>
+  </si>
+  <si>
+    <t>sparkdatabox@zohomail.in</t>
+  </si>
+  <si>
+    <t>eml</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Databox</t>
   </si>
 </sst>
 </file>
@@ -330,7 +387,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -339,6 +395,9 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -669,10 +728,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -688,22 +747,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>66</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -714,89 +782,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -807,114 +877,120 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
+      <c r="C2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -929,38 +1005,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -972,559 +1055,621 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="R2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="O5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="L8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="G9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="O10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/main/resources/custdetails.xlsx
+++ b/src/main/resources/custdetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="9825" windowHeight="6420" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="9825" windowHeight="6420" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="141">
   <si>
     <t>fname</t>
   </si>
@@ -271,16 +271,178 @@
     <t>Verify if a new user is able to register to Spark Databox</t>
   </si>
   <si>
+    <t>eml</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Databox</t>
+  </si>
+  <si>
     <t>sparkdatabox@zohomail.in</t>
   </si>
   <si>
-    <t>eml</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>Databox</t>
+    <t>Non - Indian user enrolling a course with Flat discount INDIAN coupon on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course with % discount INDIAN coupon on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course with Full Free discount INDIAN coupon on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with Flat discount NON INDIAN coupon on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with % discount NON INDIAN coupon on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with Full Free discount NON INDIAN coupon on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course for Flat discount on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course for % discount on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course for Full Free discount on Custom Multiple Courses</t>
+  </si>
+  <si>
+    <t>Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Hadoop Online Training</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with Flat discount INDIAN coupon on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with Flat discount INDIAN coupon on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course with Flat discount INDIAN coupon on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course with Flat discount INDIAN coupon on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with % discount INDIAN coupon on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with % discount INDIAN coupon on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course with % discount INDIAN coupon on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course with % discount INDIAN coupon on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with Full Free discount INDIAN coupon on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with Full Free discount INDIAN coupon on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course with Full Free discount INDIAN coupon on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course with Full Free discount INDIAN coupon on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course with Flat discount NON INDIAN coupon on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course with Flat discount NON INDIAN coupon on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with Flat discount NON INDIAN coupon on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with Flat discount NON INDIAN coupon on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course with % discount NON INDIAN coupon on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course with % discount NON INDIAN coupon on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with % discount NON INDIAN coupon on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course with Full Free discount NON INDIAN coupon on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with % discount NON INDIAN coupon on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course with Full Free discount NON INDIAN coupon on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with Full Free discount NON INDIAN coupon on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course with Full Free discount NON INDIAN coupon on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course for Flat discount on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course for Flat discount on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course for Flat discount on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course for Flat discount on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course for % discount on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course for % discount on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course for % discount on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course for Full Free discount on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course for Full Free discount on Only Self-Paced Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course for % discount on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Non - Indian user enrolling a course for Full Free discount on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Indian user enrolling a course for Full Free discount on Only Live Online Courses</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>INVALID</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>FLAT</t>
+  </si>
+  <si>
+    <t>10$</t>
+  </si>
+  <si>
+    <t>Master Golang Programming</t>
   </si>
 </sst>
 </file>
@@ -393,11 +555,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -759,10 +921,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -784,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,19 +958,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -817,7 +979,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -826,7 +988,7 @@
         <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -848,13 +1010,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -906,43 +1068,43 @@
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1020,16 +1182,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1055,118 +1217,122 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I2" s="4" t="s">
         <v>57</v>
       </c>
@@ -1174,502 +1340,3271 @@
         <v>57</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="M2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="R2" s="3" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="H8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="J8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="M8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="R8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="H14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="R14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="H20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="K20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="N20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="R20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="H26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="L26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="3" t="s">
+      <c r="N26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="R26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="3" t="s">
+      <c r="H32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="R32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="I38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="K38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="3" t="s">
+      <c r="N38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="R38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="H44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="J44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9" s="3" t="s">
+      <c r="N44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="R44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>98</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B50" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" s="3" t="s">
+      <c r="H50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P50" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q50" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="R50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>98</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T55" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/main/resources/custdetails.xlsx
+++ b/src/main/resources/custdetails.xlsx
@@ -13,14 +13,15 @@
     <sheet name="verifyLoginTest" sheetId="3" r:id="rId4"/>
     <sheet name="buyacourse" sheetId="6" r:id="rId5"/>
     <sheet name="getaFreecourse" sheetId="7" r:id="rId6"/>
-    <sheet name="TestCompleteCoupons" sheetId="8" r:id="rId7"/>
+    <sheet name="MaximumUsage" sheetId="10" r:id="rId7"/>
+    <sheet name="TestCompleteCoupons" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="141">
   <si>
     <t>fname</t>
   </si>
@@ -175,9 +176,6 @@
     <t>500</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>Other Countries (except india)</t>
   </si>
   <si>
@@ -196,9 +194,6 @@
     <t/>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>Cutom Multiple Courses</t>
   </si>
   <si>
@@ -443,6 +438,12 @@
   </si>
   <si>
     <t>Master Golang Programming</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Vrify the maximum usage of the coupon</t>
   </si>
 </sst>
 </file>
@@ -922,7 +923,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>4</v>
@@ -930,7 +931,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>27</v>
@@ -959,13 +960,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>0</v>
@@ -976,10 +977,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -988,7 +989,7 @@
         <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1012,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>5</v>
@@ -1022,7 +1023,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
@@ -1069,7 +1070,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>9</v>
@@ -1116,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>26</v>
@@ -1170,7 +1171,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1184,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>31</v>
@@ -1197,7 +1198,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>32</v>
@@ -1217,10 +1218,105 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,20 +1337,20 @@
     <col min="14" max="14" width="13.5703125" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>33</v>
@@ -1293,13 +1389,13 @@
         <v>42</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="S1" s="9" t="s">
         <v>5</v>
@@ -1310,13 +1406,13 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>45</v>
@@ -1334,34 +1430,34 @@
         <v>50</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>7</v>
@@ -1372,13 +1468,13 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>45</v>
@@ -1396,19 +1492,19 @@
         <v>50</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>25</v>
@@ -1417,13 +1513,13 @@
         <v>49</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>7</v>
@@ -1434,13 +1530,13 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>45</v>
@@ -1458,19 +1554,19 @@
         <v>50</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>25</v>
@@ -1479,13 +1575,13 @@
         <v>49</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>7</v>
@@ -1496,13 +1592,13 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>45</v>
@@ -1520,34 +1616,34 @@
         <v>50</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>7</v>
@@ -1558,13 +1654,13 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>45</v>
@@ -1582,19 +1678,19 @@
         <v>50</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>25</v>
@@ -1603,13 +1699,13 @@
         <v>49</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>7</v>
@@ -1620,13 +1716,13 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>45</v>
@@ -1644,19 +1740,19 @@
         <v>50</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>25</v>
@@ -1665,13 +1761,13 @@
         <v>49</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>7</v>
@@ -1682,13 +1778,13 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>45</v>
@@ -1700,40 +1796,40 @@
         <v>47</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q8" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>7</v>
@@ -1744,13 +1840,13 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>45</v>
@@ -1762,25 +1858,25 @@
         <v>47</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>25</v>
@@ -1789,13 +1885,13 @@
         <v>49</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>7</v>
@@ -1806,13 +1902,13 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>45</v>
@@ -1824,25 +1920,25 @@
         <v>47</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>25</v>
@@ -1851,13 +1947,13 @@
         <v>49</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>7</v>
@@ -1868,13 +1964,13 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>45</v>
@@ -1886,40 +1982,40 @@
         <v>47</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>7</v>
@@ -1930,13 +2026,13 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>45</v>
@@ -1948,25 +2044,25 @@
         <v>47</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>25</v>
@@ -1975,13 +2071,13 @@
         <v>49</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>7</v>
@@ -1992,13 +2088,13 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>45</v>
@@ -2010,25 +2106,25 @@
         <v>47</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>25</v>
@@ -2037,13 +2133,13 @@
         <v>49</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>7</v>
@@ -2054,13 +2150,13 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>45</v>
@@ -2072,40 +2168,40 @@
         <v>47</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q14" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>7</v>
@@ -2116,13 +2212,13 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>45</v>
@@ -2134,25 +2230,25 @@
         <v>47</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>25</v>
@@ -2161,13 +2257,13 @@
         <v>49</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>7</v>
@@ -2178,13 +2274,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>45</v>
@@ -2196,25 +2292,25 @@
         <v>47</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>25</v>
@@ -2223,13 +2319,13 @@
         <v>49</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>7</v>
@@ -2240,13 +2336,13 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>45</v>
@@ -2258,40 +2354,40 @@
         <v>47</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q17" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>7</v>
@@ -2302,13 +2398,13 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>45</v>
@@ -2320,25 +2416,25 @@
         <v>47</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>25</v>
@@ -2347,13 +2443,13 @@
         <v>49</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>7</v>
@@ -2364,13 +2460,13 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>45</v>
@@ -2382,25 +2478,25 @@
         <v>47</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>25</v>
@@ -2409,13 +2505,13 @@
         <v>49</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>7</v>
@@ -2426,13 +2522,13 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>45</v>
@@ -2441,43 +2537,43 @@
         <v>46</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q20" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>7</v>
@@ -2488,13 +2584,13 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>45</v>
@@ -2503,28 +2599,28 @@
         <v>46</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>25</v>
@@ -2533,13 +2629,13 @@
         <v>49</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>7</v>
@@ -2550,13 +2646,13 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>45</v>
@@ -2565,28 +2661,28 @@
         <v>46</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>25</v>
@@ -2595,13 +2691,13 @@
         <v>49</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>7</v>
@@ -2612,13 +2708,13 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>45</v>
@@ -2627,43 +2723,43 @@
         <v>46</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q23" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>7</v>
@@ -2674,13 +2770,13 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>45</v>
@@ -2689,28 +2785,28 @@
         <v>46</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>25</v>
@@ -2719,13 +2815,13 @@
         <v>49</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>7</v>
@@ -2736,13 +2832,13 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>45</v>
@@ -2751,28 +2847,28 @@
         <v>46</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>25</v>
@@ -2781,13 +2877,13 @@
         <v>49</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S25" s="3" t="s">
         <v>7</v>
@@ -2798,13 +2894,13 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>45</v>
@@ -2813,43 +2909,43 @@
         <v>46</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q26" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>7</v>
@@ -2860,13 +2956,13 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>45</v>
@@ -2875,28 +2971,28 @@
         <v>46</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>25</v>
@@ -2905,13 +3001,13 @@
         <v>49</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>7</v>
@@ -2922,13 +3018,13 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>45</v>
@@ -2937,28 +3033,28 @@
         <v>46</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>25</v>
@@ -2967,13 +3063,13 @@
         <v>49</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>7</v>
@@ -2984,13 +3080,13 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>45</v>
@@ -2999,43 +3095,43 @@
         <v>46</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q29" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>7</v>
@@ -3046,13 +3142,13 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>45</v>
@@ -3061,28 +3157,28 @@
         <v>46</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>25</v>
@@ -3091,13 +3187,13 @@
         <v>49</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>7</v>
@@ -3108,13 +3204,13 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>45</v>
@@ -3123,28 +3219,28 @@
         <v>46</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>25</v>
@@ -3153,13 +3249,13 @@
         <v>49</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>7</v>
@@ -3170,13 +3266,13 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>45</v>
@@ -3185,43 +3281,43 @@
         <v>46</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q32" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>7</v>
@@ -3232,13 +3328,13 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>45</v>
@@ -3247,10 +3343,10 @@
         <v>46</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -3265,13 +3361,13 @@
         <v>49</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>7</v>
@@ -3282,13 +3378,13 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>45</v>
@@ -3297,10 +3393,10 @@
         <v>46</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -3315,13 +3411,13 @@
         <v>49</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>7</v>
@@ -3332,13 +3428,13 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>45</v>
@@ -3347,43 +3443,43 @@
         <v>46</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q35" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>7</v>
@@ -3394,13 +3490,13 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>45</v>
@@ -3409,10 +3505,10 @@
         <v>46</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3427,13 +3523,13 @@
         <v>49</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S36" s="3" t="s">
         <v>7</v>
@@ -3444,13 +3540,13 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>45</v>
@@ -3459,10 +3555,10 @@
         <v>46</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -3477,13 +3573,13 @@
         <v>49</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S37" s="3" t="s">
         <v>7</v>
@@ -3494,13 +3590,13 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>45</v>
@@ -3509,7 +3605,7 @@
         <v>46</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>48</v>
@@ -3518,34 +3614,34 @@
         <v>50</v>
       </c>
       <c r="I38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q38" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S38" s="3" t="s">
         <v>7</v>
@@ -3556,13 +3652,13 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>45</v>
@@ -3571,7 +3667,7 @@
         <v>46</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>48</v>
@@ -3580,19 +3676,19 @@
         <v>50</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>25</v>
@@ -3601,13 +3697,13 @@
         <v>49</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S39" s="3" t="s">
         <v>7</v>
@@ -3618,13 +3714,13 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>45</v>
@@ -3633,7 +3729,7 @@
         <v>46</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>48</v>
@@ -3642,19 +3738,19 @@
         <v>50</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>25</v>
@@ -3663,13 +3759,13 @@
         <v>49</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S40" s="3" t="s">
         <v>7</v>
@@ -3680,13 +3776,13 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>45</v>
@@ -3695,7 +3791,7 @@
         <v>46</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>48</v>
@@ -3704,34 +3800,34 @@
         <v>50</v>
       </c>
       <c r="I41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q41" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>7</v>
@@ -3742,13 +3838,13 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>45</v>
@@ -3757,7 +3853,7 @@
         <v>46</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>48</v>
@@ -3766,19 +3862,19 @@
         <v>50</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>25</v>
@@ -3787,13 +3883,13 @@
         <v>49</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>7</v>
@@ -3804,13 +3900,13 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>45</v>
@@ -3819,7 +3915,7 @@
         <v>46</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>48</v>
@@ -3828,19 +3924,19 @@
         <v>50</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>25</v>
@@ -3849,13 +3945,13 @@
         <v>49</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>7</v>
@@ -3866,13 +3962,13 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>45</v>
@@ -3881,43 +3977,43 @@
         <v>46</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="H44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q44" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>7</v>
@@ -3928,13 +4024,13 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>45</v>
@@ -3943,28 +4039,28 @@
         <v>46</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="H45" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>25</v>
@@ -3973,13 +4069,13 @@
         <v>49</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>7</v>
@@ -3990,13 +4086,13 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>45</v>
@@ -4005,28 +4101,28 @@
         <v>46</v>
       </c>
       <c r="F46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="H46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>25</v>
@@ -4035,13 +4131,13 @@
         <v>49</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>7</v>
@@ -4052,13 +4148,13 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>45</v>
@@ -4067,43 +4163,43 @@
         <v>46</v>
       </c>
       <c r="F47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="H47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q47" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>7</v>
@@ -4114,13 +4210,13 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>45</v>
@@ -4129,28 +4225,28 @@
         <v>46</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="H48" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>25</v>
@@ -4159,13 +4255,13 @@
         <v>49</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>7</v>
@@ -4176,13 +4272,13 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>45</v>
@@ -4191,28 +4287,28 @@
         <v>46</v>
       </c>
       <c r="F49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="H49" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>25</v>
@@ -4221,13 +4317,13 @@
         <v>49</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>7</v>
@@ -4238,13 +4334,13 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>45</v>
@@ -4253,43 +4349,43 @@
         <v>46</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P50" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I50" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q50" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S50" s="3" t="s">
         <v>7</v>
@@ -4300,58 +4396,58 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q51" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="R51" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S51" s="3" t="s">
         <v>7</v>
@@ -4362,13 +4458,13 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>45</v>
@@ -4377,28 +4473,28 @@
         <v>46</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>25</v>
@@ -4407,13 +4503,13 @@
         <v>49</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>7</v>
@@ -4424,13 +4520,13 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>45</v>
@@ -4439,43 +4535,43 @@
         <v>46</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q53" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S53" s="3" t="s">
         <v>7</v>
@@ -4486,58 +4582,58 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q54" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="R54" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>7</v>
@@ -4548,13 +4644,13 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>45</v>
@@ -4563,28 +4659,28 @@
         <v>46</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N55" s="3" t="s">
         <v>25</v>
@@ -4593,13 +4689,13 @@
         <v>49</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S55" s="3" t="s">
         <v>7</v>
